--- a/biology/Zoologie/Calapnita_vermiformis/Calapnita_vermiformis.xlsx
+++ b/biology/Zoologie/Calapnita_vermiformis/Calapnita_vermiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calapnita vermiformis est une espèce d'araignées aranéomorphes de la famille des Pholcidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calapnita vermiformis est une espèce d'araignées aranéomorphes de la famille des Pholcidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4 mm
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1892 : Arachnides. Études sur les arthropodes cavernicoles de l'île Luzon. Voyage de M. E. Simon aux îles Philippines (mars et avril 1890). 4e Mémoire. Annales de la Société Entomologique de France, vol. 61, p. 35-52 (texte intégral).</t>
         </is>
